--- a/data/trans_orig/P16-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>628967</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>597177</v>
+        <v>595303</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>658913</v>
+        <v>658931</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6096276892577251</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5788149486963332</v>
+        <v>0.576998987589924</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6386530130292821</v>
+        <v>0.6386706120337742</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>987</v>
@@ -765,19 +765,19 @@
         <v>1003568</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>976679</v>
+        <v>971112</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1033971</v>
+        <v>1032644</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7631037150272566</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7426580283266524</v>
+        <v>0.7384247009475841</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.786221934618426</v>
+        <v>0.7852131650185497</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1634</v>
@@ -786,19 +786,19 @@
         <v>1632534</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1585896</v>
+        <v>1584570</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1676928</v>
+        <v>1672131</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6956321248523285</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6757594660768265</v>
+        <v>0.6751942831954061</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7145488341163262</v>
+        <v>0.7125047047533087</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>402756</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>372810</v>
+        <v>372792</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>434546</v>
+        <v>436420</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3903723107422749</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3613469869707178</v>
+        <v>0.3613293879662259</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.421185051303667</v>
+        <v>0.4230010124100761</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>304</v>
@@ -836,19 +836,19 @@
         <v>311545</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>281142</v>
+        <v>282469</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>338434</v>
+        <v>344001</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2368962849727434</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2137780653815742</v>
+        <v>0.2147868349814503</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2573419716733477</v>
+        <v>0.2615752990524158</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>695</v>
@@ -857,19 +857,19 @@
         <v>714301</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>669907</v>
+        <v>674704</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>760939</v>
+        <v>762265</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3043678751476714</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2854511658836739</v>
+        <v>0.2874952952466914</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3242405339231736</v>
+        <v>0.324805716804594</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>514134</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>478643</v>
+        <v>477461</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>555420</v>
+        <v>552389</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3037907566345389</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2828202892192881</v>
+        <v>0.2821214959856251</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3281857908610754</v>
+        <v>0.3263951165488175</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>713</v>
@@ -982,19 +982,19 @@
         <v>733888</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>696098</v>
+        <v>691382</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>773300</v>
+        <v>770261</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4622414767659869</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4384394010062436</v>
+        <v>0.4354685933373786</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4870652375673175</v>
+        <v>0.4851509365605725</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1222</v>
@@ -1003,19 +1003,19 @@
         <v>1248022</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1197560</v>
+        <v>1191467</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1303829</v>
+        <v>1297827</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3804867219089762</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.365102366464217</v>
+        <v>0.3632448068287564</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3975008103047583</v>
+        <v>0.3956709834150156</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1178260</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1136974</v>
+        <v>1140005</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1213751</v>
+        <v>1214933</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6962092433654611</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6718142091389246</v>
+        <v>0.6736048834511827</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7171797107807121</v>
+        <v>0.7178785040143753</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>841</v>
@@ -1053,19 +1053,19 @@
         <v>853785</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>814373</v>
+        <v>817412</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>891575</v>
+        <v>896291</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5377585232340131</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5129347624326824</v>
+        <v>0.5148490634394275</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5615605989937563</v>
+        <v>0.5645314066626212</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1980</v>
@@ -1074,19 +1074,19 @@
         <v>2032045</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1976238</v>
+        <v>1982240</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2082507</v>
+        <v>2088600</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6195132780910237</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6024991896952417</v>
+        <v>0.6043290165849844</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6348976335357828</v>
+        <v>0.6367551931712436</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>184762</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>163765</v>
+        <v>158770</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>207274</v>
+        <v>207203</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3350736074407668</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2969937214881981</v>
+        <v>0.2879359973422838</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3758995002685126</v>
+        <v>0.3757715929751624</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>233</v>
@@ -1199,19 +1199,19 @@
         <v>242020</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>219329</v>
+        <v>220294</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>263458</v>
+        <v>263741</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5080057006310453</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.460377354280898</v>
+        <v>0.462403255132468</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5530045770961663</v>
+        <v>0.5535994548509134</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>412</v>
@@ -1220,19 +1220,19 @@
         <v>426782</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>396789</v>
+        <v>393365</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>464539</v>
+        <v>459317</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4152305374762821</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3860495475493244</v>
+        <v>0.3827178672954833</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4519656543326072</v>
+        <v>0.4468847428096614</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>366646</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>344134</v>
+        <v>344205</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>387643</v>
+        <v>392638</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6649263925592332</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6241004997314873</v>
+        <v>0.6242284070248383</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7030062785118018</v>
+        <v>0.7120640026577164</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>219</v>
@@ -1270,19 +1270,19 @@
         <v>234392</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>212954</v>
+        <v>212671</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>257083</v>
+        <v>256118</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4919942993689547</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4469954229038339</v>
+        <v>0.4464005451490866</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.539622645719102</v>
+        <v>0.5375967448675321</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>567</v>
@@ -1291,19 +1291,19 @@
         <v>601038</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>563281</v>
+        <v>568503</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>631031</v>
+        <v>634455</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5847694625237179</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.548034345667393</v>
+        <v>0.5531152571903386</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6139504524506756</v>
+        <v>0.6172821327045167</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>1327863</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1275041</v>
+        <v>1271980</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1387420</v>
+        <v>1385906</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4053892920892231</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3892629640014501</v>
+        <v>0.3883285284746935</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4235719234481347</v>
+        <v>0.4231097182316391</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1933</v>
@@ -1416,19 +1416,19 @@
         <v>1979475</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1920297</v>
+        <v>1927948</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2033805</v>
+        <v>2040337</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5857827492728864</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5682701241541868</v>
+        <v>0.5705344806960155</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6018605811283437</v>
+        <v>0.6037934919219309</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3268</v>
@@ -1437,19 +1437,19 @@
         <v>3307338</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3229296</v>
+        <v>3233351</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3391000</v>
+        <v>3399785</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4969911716007554</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4852638120019713</v>
+        <v>0.4858732256264137</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5095629345803319</v>
+        <v>0.5108830364390604</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1947662</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1888105</v>
+        <v>1889619</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2000484</v>
+        <v>2003545</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5946107079107769</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5764280765518651</v>
+        <v>0.5768902817683609</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6107370359985489</v>
+        <v>0.6116714715253065</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1364</v>
@@ -1487,19 +1487,19 @@
         <v>1399722</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1345392</v>
+        <v>1338860</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1458900</v>
+        <v>1451249</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4142172507271136</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3981394188716563</v>
+        <v>0.3962065080780691</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4317298758458132</v>
+        <v>0.4294655193039845</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3242</v>
@@ -1508,19 +1508,19 @@
         <v>3347384</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3263722</v>
+        <v>3254937</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3425426</v>
+        <v>3421371</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5030088283992445</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4904370654196679</v>
+        <v>0.4891169635609396</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5147361879980287</v>
+        <v>0.5141267743735863</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>700302</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>672053</v>
+        <v>671694</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>726627</v>
+        <v>729887</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7185212351485332</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6895375882404876</v>
+        <v>0.6891689669549189</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7455310746738362</v>
+        <v>0.7488766052140934</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1067</v>
@@ -1872,19 +1872,19 @@
         <v>1137417</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1105001</v>
+        <v>1108597</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1162464</v>
+        <v>1162861</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8508749720608806</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8266248771146727</v>
+        <v>0.8293148812401914</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8696117204308892</v>
+        <v>0.8699088982509088</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1713</v>
@@ -1893,19 +1893,19 @@
         <v>1837719</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1794668</v>
+        <v>1797833</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1875491</v>
+        <v>1871859</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7950657884167895</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7764404090842276</v>
+        <v>0.7778094551471104</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8114072983123939</v>
+        <v>0.8098360351744703</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>274341</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>248016</v>
+        <v>244756</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>302590</v>
+        <v>302949</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2814787648514669</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2544689253261637</v>
+        <v>0.2511233947859065</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3104624117595123</v>
+        <v>0.310831033045081</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>179</v>
@@ -1943,19 +1943,19 @@
         <v>199345</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>174298</v>
+        <v>173901</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>231761</v>
+        <v>228165</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1491250279391194</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1303882795691108</v>
+        <v>0.1300911017490912</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1733751228853272</v>
+        <v>0.1706851187598086</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>441</v>
@@ -1964,19 +1964,19 @@
         <v>473686</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>435914</v>
+        <v>439546</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>516737</v>
+        <v>513572</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2049342115832105</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1885927016876061</v>
+        <v>0.1901639648255297</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2235595909157724</v>
+        <v>0.2221905448528896</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>825965</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>779384</v>
+        <v>778549</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>868649</v>
+        <v>867340</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4214059015732721</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3976403134952457</v>
+        <v>0.3972144274581887</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4431831697325046</v>
+        <v>0.4425152151303757</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1003</v>
@@ -2089,19 +2089,19 @@
         <v>1087293</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1048749</v>
+        <v>1043761</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1129297</v>
+        <v>1128679</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6188658178128074</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5969275792435368</v>
+        <v>0.5940883965454519</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6427740620357797</v>
+        <v>0.6424221056534539</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1770</v>
@@ -2110,19 +2110,19 @@
         <v>1913258</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1853990</v>
+        <v>1853360</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1979258</v>
+        <v>1977991</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5147408094457779</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4987956368261414</v>
+        <v>0.4986260403869457</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5324974843673738</v>
+        <v>0.5321566185978113</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1134057</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1091373</v>
+        <v>1092682</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1180638</v>
+        <v>1181473</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5785940984267279</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5568168302674953</v>
+        <v>0.5574847848696243</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6023596865047542</v>
+        <v>0.6027855725418114</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>631</v>
@@ -2160,19 +2160,19 @@
         <v>669619</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>627615</v>
+        <v>628233</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>708163</v>
+        <v>713151</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3811341821871926</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3572259379642204</v>
+        <v>0.3575778943465461</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4030724207564632</v>
+        <v>0.4059116034545482</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1716</v>
@@ -2181,19 +2181,19 @@
         <v>1803676</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1737676</v>
+        <v>1738943</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1862944</v>
+        <v>1863574</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4852591905542221</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4675025156326261</v>
+        <v>0.4678433814021886</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5012043631738585</v>
+        <v>0.5013739596130542</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>195864</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>172199</v>
+        <v>173213</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>220056</v>
+        <v>218323</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4077687879014876</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3585003068393019</v>
+        <v>0.3606104127198024</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4581336699444742</v>
+        <v>0.4545260705751696</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>238</v>
@@ -2306,19 +2306,19 @@
         <v>268949</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>248342</v>
+        <v>245504</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>292722</v>
+        <v>291078</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5876696744052002</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5426422003225833</v>
+        <v>0.5364400776255339</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6396137870963207</v>
+        <v>0.6360211098606152</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>408</v>
@@ -2327,19 +2327,19 @@
         <v>464814</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>431090</v>
+        <v>431961</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>496472</v>
+        <v>498187</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4955445085813796</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4595915573578695</v>
+        <v>0.4605200352698153</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5292957176910184</v>
+        <v>0.5311238713100199</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>284468</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>260276</v>
+        <v>262009</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>308133</v>
+        <v>307119</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5922312120985125</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5418663300555258</v>
+        <v>0.5454739294248303</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6414996931606981</v>
+        <v>0.6393895872801976</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>173</v>
@@ -2377,19 +2377,19 @@
         <v>188705</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>164932</v>
+        <v>166576</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>209312</v>
+        <v>212150</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4123303255947998</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3603862129036794</v>
+        <v>0.3639788901393848</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4573577996774167</v>
+        <v>0.4635599223744661</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>440</v>
@@ -2398,19 +2398,19 @@
         <v>473172</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>441514</v>
+        <v>439799</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>506896</v>
+        <v>506025</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5044554914186203</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4707042823089816</v>
+        <v>0.4688761286899802</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5404084426421305</v>
+        <v>0.5394799647301847</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>1722131</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1665559</v>
+        <v>1660124</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1786165</v>
+        <v>1780656</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5042847567352252</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.487719049159259</v>
+        <v>0.4861276439121738</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5230357019306969</v>
+        <v>0.5214222848737299</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2308</v>
@@ -2523,19 +2523,19 @@
         <v>2493660</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2438363</v>
+        <v>2432447</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2549003</v>
+        <v>2546254</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7021766214259921</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6866058549926995</v>
+        <v>0.6849398980696736</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7177603310576329</v>
+        <v>0.7169863346559447</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3891</v>
@@ -2544,19 +2544,19 @@
         <v>4215791</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4127358</v>
+        <v>4131241</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4299755</v>
+        <v>4297557</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6051670705509482</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5924727366997995</v>
+        <v>0.5930301178837443</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6172198861021504</v>
+        <v>0.6169044004041119</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>1692866</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1628832</v>
+        <v>1634341</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1749438</v>
+        <v>1754873</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4957152432647748</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4769642980693032</v>
+        <v>0.47857771512627</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5122809508407411</v>
+        <v>0.5138723560878262</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>983</v>
@@ -2594,19 +2594,19 @@
         <v>1057669</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1002326</v>
+        <v>1005075</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1112966</v>
+        <v>1118882</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2978233785740079</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2822396689423669</v>
+        <v>0.2830136653440555</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3133941450073002</v>
+        <v>0.3150601019303265</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2597</v>
@@ -2615,19 +2615,19 @@
         <v>2750535</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2666571</v>
+        <v>2668769</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2838968</v>
+        <v>2835085</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3948329294490518</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3827801138978497</v>
+        <v>0.3830955995958886</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4075272633002005</v>
+        <v>0.4069698821162558</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>515590</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>490251</v>
+        <v>488238</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>542297</v>
+        <v>540453</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6834923583486672</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6499015257362029</v>
+        <v>0.6472326831363148</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7188959221997574</v>
+        <v>0.7164515668251913</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>745</v>
@@ -2979,19 +2979,19 @@
         <v>841159</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>816211</v>
+        <v>817898</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>862645</v>
+        <v>864551</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8456746772526931</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8205930991026101</v>
+        <v>0.822289485901723</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8672762610697864</v>
+        <v>0.8691929179936835</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1275</v>
@@ -3000,19 +3000,19 @@
         <v>1356749</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1321154</v>
+        <v>1321640</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1390284</v>
+        <v>1389719</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7757254356888948</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7553740134951343</v>
+        <v>0.7556515255683292</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.794898941682905</v>
+        <v>0.7945760851649563</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>238757</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>212050</v>
+        <v>213894</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>264096</v>
+        <v>266109</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3165076416513328</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2811040778002418</v>
+        <v>0.2835484331748087</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3500984742637971</v>
+        <v>0.3527673168636853</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>147</v>
@@ -3050,19 +3050,19 @@
         <v>153501</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>132015</v>
+        <v>130109</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>178449</v>
+        <v>176762</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1543253227473069</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1327237389302135</v>
+        <v>0.1308070820063165</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1794069008973898</v>
+        <v>0.1777105140982769</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>379</v>
@@ -3071,19 +3071,19 @@
         <v>392258</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>358723</v>
+        <v>359288</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>427853</v>
+        <v>427367</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2242745643111052</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.205101058317095</v>
+        <v>0.2054239148350438</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2446259865048657</v>
+        <v>0.2443484744316708</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>917243</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>875182</v>
+        <v>873858</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>964052</v>
+        <v>960522</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.441749936475795</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4214930217030878</v>
+        <v>0.4208555378423887</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4642936738538987</v>
+        <v>0.4625933483549319</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1076</v>
@@ -3196,19 +3196,19 @@
         <v>1146737</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1101432</v>
+        <v>1099986</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1192008</v>
+        <v>1186725</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5767424371223702</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5539564799651119</v>
+        <v>0.5532291769959985</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5995111609970395</v>
+        <v>0.5968539192819678</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1933</v>
@@ -3217,19 +3217,19 @@
         <v>2063980</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1995494</v>
+        <v>1999514</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2124132</v>
+        <v>2127144</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5077834903140362</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4909345294026836</v>
+        <v>0.4919235991926331</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5225821290106722</v>
+        <v>0.5233233030356109</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1159142</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1112333</v>
+        <v>1115863</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1201203</v>
+        <v>1202527</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5582500635242049</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5357063261461011</v>
+        <v>0.5374066516450681</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5785069782969123</v>
+        <v>0.5791444621576113</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>832</v>
@@ -3267,19 +3267,19 @@
         <v>841563</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>796292</v>
+        <v>801575</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>886868</v>
+        <v>888314</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4232575628776299</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4004888390029605</v>
+        <v>0.4031460807180322</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4460435200348882</v>
+        <v>0.4467708230040014</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1927</v>
@@ -3288,19 +3288,19 @@
         <v>2000705</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1940553</v>
+        <v>1937541</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2069191</v>
+        <v>2065171</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4922165096859637</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4774178709893277</v>
+        <v>0.4766766969643891</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5090654705973163</v>
+        <v>0.5080764008073668</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>245683</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>223141</v>
+        <v>223323</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>271898</v>
+        <v>271004</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4492407234286084</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4080201433930868</v>
+        <v>0.4083543444719092</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4971751904024193</v>
+        <v>0.4955400669096939</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>282</v>
@@ -3413,19 +3413,19 @@
         <v>302316</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>280210</v>
+        <v>279860</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>323976</v>
+        <v>326830</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5505261928568611</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5102712031546622</v>
+        <v>0.5096328543991157</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5899695949682219</v>
+        <v>0.5951675262748709</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>505</v>
@@ -3434,19 +3434,19 @@
         <v>548000</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>511473</v>
+        <v>516142</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>581632</v>
+        <v>583492</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.499987612530599</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4666610926929612</v>
+        <v>0.470920898496942</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5306732222703041</v>
+        <v>0.5323702066517713</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>301203</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>274988</v>
+        <v>275882</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>323745</v>
+        <v>323563</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5507592765713916</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5028248095975807</v>
+        <v>0.504459933090306</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5919798566069132</v>
+        <v>0.591645655528091</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>244</v>
@@ -3484,19 +3484,19 @@
         <v>246824</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>225164</v>
+        <v>222310</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>268930</v>
+        <v>269280</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4494738071431389</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4100304050317781</v>
+        <v>0.4048324737251291</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4897287968453378</v>
+        <v>0.4903671456008843</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>522</v>
@@ -3505,19 +3505,19 @@
         <v>548027</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>514395</v>
+        <v>512535</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>584554</v>
+        <v>579885</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5000123874694009</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4693267777296961</v>
+        <v>0.4676297933482287</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5333389073070388</v>
+        <v>0.5290791015030581</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>1678517</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1620173</v>
+        <v>1617747</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1736271</v>
+        <v>1738178</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4969528138556368</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4796792808486706</v>
+        <v>0.4789608790030627</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5140520216982299</v>
+        <v>0.51461664834529</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2103</v>
@@ -3630,19 +3630,19 @@
         <v>2290212</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2233475</v>
+        <v>2235622</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2352898</v>
+        <v>2349498</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6483994551546994</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6323362435672332</v>
+        <v>0.6329440188792322</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6661471075568201</v>
+        <v>0.665184370424749</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3713</v>
@@ -3651,19 +3651,19 @@
         <v>3968729</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3884627</v>
+        <v>3891251</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4048122</v>
+        <v>4052014</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5743691034470861</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5621976688094513</v>
+        <v>0.5631563212753318</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5858592350709607</v>
+        <v>0.586422491222914</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>1699101</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1641347</v>
+        <v>1639440</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1757445</v>
+        <v>1759871</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5030471861443632</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.48594797830177</v>
+        <v>0.48538335165471</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5203207191513296</v>
+        <v>0.5210391209969373</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1223</v>
@@ -3701,19 +3701,19 @@
         <v>1241888</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1179202</v>
+        <v>1182602</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1298625</v>
+        <v>1296478</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3516005448453006</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3338528924431796</v>
+        <v>0.3348156295752509</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3676637564327667</v>
+        <v>0.3670559811207677</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2828</v>
@@ -3722,19 +3722,19 @@
         <v>2940989</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2861596</v>
+        <v>2857704</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3025091</v>
+        <v>3018467</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4256308965529139</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.414140764929039</v>
+        <v>0.4135775087770857</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4378023311905486</v>
+        <v>0.4368436787246682</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>392347</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>369582</v>
+        <v>368312</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>414492</v>
+        <v>414462</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6781808953422811</v>
+        <v>0.6781808953422812</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6388312733938555</v>
+        <v>0.6366346564138348</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7164589358210768</v>
+        <v>0.7164060245772659</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1209</v>
@@ -4086,19 +4086,19 @@
         <v>674947</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>656901</v>
+        <v>655928</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>693181</v>
+        <v>691130</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8223918165441257</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8004034127949728</v>
+        <v>0.7992187037430862</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8446097047040901</v>
+        <v>0.8421103941780144</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1718</v>
@@ -4107,19 +4107,19 @@
         <v>1067294</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1034706</v>
+        <v>1038260</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1096930</v>
+        <v>1100764</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7627664676649359</v>
+        <v>0.7627664676649358</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7394767889274262</v>
+        <v>0.7420165260604562</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.783946200312042</v>
+        <v>0.7866865986370531</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>186182</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>164037</v>
+        <v>164067</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>208947</v>
+        <v>210217</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.321819104657719</v>
+        <v>0.3218191046577189</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2835410641789232</v>
+        <v>0.2835939754227342</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3611687266061443</v>
+        <v>0.3633653435861653</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>216</v>
@@ -4157,19 +4157,19 @@
         <v>145765</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>127531</v>
+        <v>129582</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>163811</v>
+        <v>164784</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1776081834558742</v>
+        <v>0.1776081834558743</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1553902952959098</v>
+        <v>0.1578896058219856</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1995965872050272</v>
+        <v>0.2007812962569137</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>398</v>
@@ -4178,19 +4178,19 @@
         <v>331947</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>302311</v>
+        <v>298477</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>364535</v>
+        <v>360981</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.237233532335064</v>
+        <v>0.2372335323350639</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2160537996879581</v>
+        <v>0.2133134013629469</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2605232110725736</v>
+        <v>0.2579834739395439</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>1073055</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1023225</v>
+        <v>1025369</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1130144</v>
+        <v>1130646</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.4810686814177172</v>
+        <v>0.4810686814177171</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4587289602052372</v>
+        <v>0.459689861426131</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5066624180205846</v>
+        <v>0.5068872994857107</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1849</v>
@@ -4303,19 +4303,19 @@
         <v>1258329</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1211369</v>
+        <v>1216711</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1303797</v>
+        <v>1300347</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5796862026131575</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5580526193023225</v>
+        <v>0.5605137567202984</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6006322769106633</v>
+        <v>0.5990432997472305</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2942</v>
@@ -4324,19 +4324,19 @@
         <v>2331385</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2254512</v>
+        <v>2258631</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2396833</v>
+        <v>2403528</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5297068229583844</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.512240832198992</v>
+        <v>0.5131765972255935</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.544577026648042</v>
+        <v>0.5460982455550244</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1157511</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1100422</v>
+        <v>1099920</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1207341</v>
+        <v>1205197</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5189313185822829</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4933375819794153</v>
+        <v>0.4931127005142892</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5412710397947627</v>
+        <v>0.5403101385738691</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1071</v>
@@ -4374,19 +4374,19 @@
         <v>912378</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>866910</v>
+        <v>870360</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>959338</v>
+        <v>953996</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4203137973868425</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3993677230893366</v>
+        <v>0.4009567002527694</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4419473806976775</v>
+        <v>0.4394862432797019</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1970</v>
@@ -4395,19 +4395,19 @@
         <v>2069889</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2004441</v>
+        <v>1997746</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2146762</v>
+        <v>2142643</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.4702931770416155</v>
+        <v>0.4702931770416156</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4554229733519582</v>
+        <v>0.4539017544449754</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4877591678010081</v>
+        <v>0.4868234027744063</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>375679</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>346682</v>
+        <v>344571</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>404403</v>
+        <v>401275</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5279453046662003</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4871958360705977</v>
+        <v>0.4842292335783164</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.568311771981025</v>
+        <v>0.5639162583100701</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>602</v>
@@ -4520,19 +4520,19 @@
         <v>426671</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>403001</v>
+        <v>402218</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>448452</v>
+        <v>450688</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5806012983852182</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5483922243950059</v>
+        <v>0.5473274921992406</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6102411836412905</v>
+        <v>0.6132833606379685</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>983</v>
@@ -4541,19 +4541,19 @@
         <v>802350</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>763019</v>
+        <v>767490</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>841540</v>
+        <v>842342</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5546972218523598</v>
+        <v>0.5546972218523596</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5275063932016971</v>
+        <v>0.5305976964093204</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5817910999862229</v>
+        <v>0.5823459287626797</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>335908</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>307184</v>
+        <v>310312</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>364905</v>
+        <v>367016</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4720546953337997</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.431688228018975</v>
+        <v>0.4360837416899298</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5128041639294025</v>
+        <v>0.5157707664216838</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>402</v>
@@ -4591,19 +4591,19 @@
         <v>308206</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>286425</v>
+        <v>284189</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>331876</v>
+        <v>332659</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4193987016147816</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3897588163587096</v>
+        <v>0.3867166393620315</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4516077756049941</v>
+        <v>0.4526725078007596</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>702</v>
@@ -4612,19 +4612,19 @@
         <v>644114</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>604924</v>
+        <v>604122</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>683445</v>
+        <v>678974</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4453027781476403</v>
+        <v>0.4453027781476404</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4182089000137771</v>
+        <v>0.4176540712373205</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4724936067983028</v>
+        <v>0.4694023035906797</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>1841082</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1770337</v>
+        <v>1771088</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1905876</v>
+        <v>1907359</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5229332912848811</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5028391219937089</v>
+        <v>0.5030525088717001</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.54133705508549</v>
+        <v>0.5417583254494652</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3660</v>
@@ -4737,19 +4737,19 @@
         <v>2359947</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2297109</v>
+        <v>2304714</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2410625</v>
+        <v>2419047</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.6333222723603128</v>
+        <v>0.6333222723603127</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6164589117705892</v>
+        <v>0.6184999376573842</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6469224976160231</v>
+        <v>0.6491825626357639</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5643</v>
@@ -4758,19 +4758,19 @@
         <v>4201029</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4107064</v>
+        <v>4106481</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4286508</v>
+        <v>4292069</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.5796937787829533</v>
+        <v>0.5796937787829534</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.566727744336709</v>
+        <v>0.5666472511019505</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5914889423226258</v>
+        <v>0.5922562692481309</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>1679601</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1614807</v>
+        <v>1613324</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1750346</v>
+        <v>1749595</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4770667087151189</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4586629449145102</v>
+        <v>0.4582416745505349</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.497160878006291</v>
+        <v>0.4969474911283001</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1689</v>
@@ -4808,19 +4808,19 @@
         <v>1366350</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1315672</v>
+        <v>1307250</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1429188</v>
+        <v>1421583</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3666777276396872</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3530775023839769</v>
+        <v>0.3508174373642362</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3835410882294107</v>
+        <v>0.3815000623426164</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3070</v>
@@ -4829,19 +4829,19 @@
         <v>3045950</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2960471</v>
+        <v>2954910</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3139915</v>
+        <v>3140498</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4203062212170467</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4085110576773742</v>
+        <v>0.4077437307518691</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4332722556632904</v>
+        <v>0.4333527488980493</v>
       </c>
     </row>
     <row r="15">
